--- a/datasets/six_three_ab.xlsx
+++ b/datasets/six_three_ab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weswa\Documents\R Working Directory\UnevenCrimeDrop\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8F29AD-3A96-4DE5-8005-10C98350E554}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1ABA1D-33C8-4021-949C-B16C056ACDA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26835" yWindow="7260" windowWidth="28710" windowHeight="17985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3450" windowWidth="28710" windowHeight="17985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,16 +30,16 @@
     <t>Birthyear</t>
   </si>
   <si>
-    <t>Male-Proportion of prosecuted individuals</t>
-  </si>
-  <si>
-    <t>Female-Proportion of prosecuted individuals</t>
-  </si>
-  <si>
     <t>Male-Average number of criminal offenses</t>
   </si>
   <si>
     <t>Female-Average number of criminal offenses</t>
+  </si>
+  <si>
+    <t>Male-Proportion of convicted individuals</t>
+  </si>
+  <si>
+    <t>Female-Proportion of convicted individuals</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,16 +437,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
